--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -81,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,6 +115,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +215,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,7 +298,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -309,20 +316,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1013" min="11" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
@@ -368,7 +375,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -380,10 +387,10 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="7"/>
@@ -403,7 +410,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -416,7 +423,7 @@
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="7"/>
@@ -424,7 +431,7 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -432,7 +439,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">Exclude SKUs</t>
   </si>
   <si>
+    <t xml:space="preserve">Include Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include SubCategory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral ,Pain</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -218,12 +227,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -298,7 +307,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -309,28 +318,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1013" min="11" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -362,7 +372,12 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="ALZ1" s="0"/>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
@@ -377,25 +392,28 @@
     </row>
     <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="0"/>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
@@ -410,39 +428,41 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include SubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
     <t xml:space="preserve">Facings SOS</t>
@@ -87,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +226,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -307,7 +300,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -325,23 +318,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -378,7 +371,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="ALZ1" s="0"/>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
@@ -390,31 +385,31 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="ALZ2" s="0"/>
+      <c r="L2" s="7"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -428,37 +423,38 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>

--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange Score</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +235,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -300,7 +313,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -311,28 +324,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -459,6 +472,14 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">Include SubCategory</t>
   </si>
   <si>
+    <t xml:space="preserve">Include POSM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oral ,Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -194,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,6 +239,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,23 +335,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -378,7 +388,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="ALZ1" s="0"/>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
@@ -390,31 +402,33 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="ALZ2" s="0"/>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -428,40 +442,46 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="7"/>
+      <c r="L3" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo</t>
   </si>
 </sst>
 </file>
@@ -136,6 +145,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,11 +248,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -328,28 +338,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" activeCellId="0" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -407,7 +417,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
@@ -445,7 +455,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
@@ -464,7 +474,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -479,8 +489,44 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
+++ b/Projects/GSKSG_SAND2/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Oral Main shelf, Pain Main shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
@@ -92,7 +95,13 @@
     <t xml:space="preserve">secondary_display</t>
   </si>
   <si>
+    <t xml:space="preserve">Counter top, Standee, Dispenser</t>
+  </si>
+  <si>
     <t xml:space="preserve">promo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HangSell, Top Shelf Promo</t>
   </si>
 </sst>
 </file>
@@ -345,21 +354,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
+      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -412,32 +421,34 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
@@ -452,81 +463,89 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
